--- a/cat-zson/src/main/resources/excel/hd.红点条件.xlsx
+++ b/cat-zson/src/main/resources/excel/hd.红点条件.xlsx
@@ -191,12 +191,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="A11" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">true </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>读取
+false 或者空 跳过
+end 结束 后续部分不再读取</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>key</t>
   </si>
@@ -251,6 +275,9 @@
   </si>
   <si>
     <t>新邮件</t>
+  </si>
+  <si>
+    <t>家族BOSS</t>
   </si>
 </sst>
 </file>
@@ -260,8 +287,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -284,6 +311,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -293,6 +345,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -306,32 +387,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,9 +439,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,81 +455,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -460,55 +487,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,31 +631,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,91 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,80 +713,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -781,6 +734,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -789,10 +816,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,133 +828,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1296,10 +1323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J26" sqref="J25:J26"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1416,6 +1443,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" ht="16.5" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
